--- a/requirement/src/main/resources/templates/pre_proposed.xlsx
+++ b/requirement/src/main/resources/templates/pre_proposed.xlsx
@@ -517,7 +517,8 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,7 +620,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
